--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1274,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10">
         <v>2</v>
-      </c>
-      <c r="K10" s="10">
-        <v>3</v>
       </c>
       <c r="L10" s="10">
         <v>4</v>
@@ -1786,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" s="10">
         <v>2</v>

--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1376,10 +1376,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="10">
+        <v>3</v>
+      </c>
+      <c r="K15" s="10">
         <v>2</v>
-      </c>
-      <c r="K15" s="10">
-        <v>3</v>
       </c>
       <c r="L15" s="10">
         <v>4</v>
@@ -1786,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" s="10">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="J40" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K40" s="10">
         <v>0</v>
